--- a/reports/evaluation.xlsx
+++ b/reports/evaluation.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metrics by forecasted step" sheetId="1" r:id="rId1"/>
-    <sheet name="Metrics at each index" sheetId="2" r:id="rId2"/>
+    <sheet name="Naive forecast" sheetId="2" r:id="rId2"/>
+    <sheet name="Metrics at each index" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>RMSE</t>
   </si>
@@ -406,13 +407,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>128.2903801822572</v>
+        <v>131.7036362938518</v>
       </c>
       <c r="C2">
-        <v>91.89008810706966</v>
+        <v>83.61886512469947</v>
       </c>
       <c r="D2">
-        <v>126.029201705059</v>
+        <v>129.2584131052921</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>112.4304805517197</v>
+        <v>117.7477190732956</v>
       </c>
       <c r="C3">
-        <v>82.82896458421435</v>
+        <v>72.82756226062774</v>
       </c>
       <c r="D3">
-        <v>107.8337799378804</v>
+        <v>104.6217378060333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +435,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2231860420419853</v>
+        <v>0.2124154077354063</v>
       </c>
       <c r="C4">
-        <v>0.1591731801148343</v>
+        <v>0.1283451617272169</v>
       </c>
       <c r="D4">
-        <v>0.1946753984052607</v>
+        <v>0.1633663998056427</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +449,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2247287273334758</v>
+        <v>0.2257055770862675</v>
       </c>
       <c r="C5">
-        <v>0.1655491378721453</v>
+        <v>0.1308813749474227</v>
       </c>
       <c r="D5">
-        <v>0.2127955222951788</v>
+        <v>0.1845446686057443</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>131.7036362938518</v>
+      </c>
+      <c r="C2">
+        <v>83.61886512469947</v>
+      </c>
+      <c r="D2">
+        <v>129.2584131052921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>117.7477190732956</v>
+      </c>
+      <c r="C3">
+        <v>72.82756226062774</v>
+      </c>
+      <c r="D3">
+        <v>104.6217378060333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2124154077354063</v>
+      </c>
+      <c r="C4">
+        <v>0.1283451617272169</v>
+      </c>
+      <c r="D4">
+        <v>0.1633663998056427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2257055770862675</v>
+      </c>
+      <c r="C5">
+        <v>0.1308813749474227</v>
+      </c>
+      <c r="D5">
+        <v>0.1845446686057443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>77.5621785481771</v>
+        <v>139.0074192577352</v>
       </c>
       <c r="C2">
-        <v>0.18153729058697</v>
+        <v>0.2329801838586093</v>
       </c>
       <c r="D2">
-        <v>78.22048605460142</v>
+        <v>156.4241917660677</v>
       </c>
       <c r="E2">
-        <v>0.1998735655173511</v>
+        <v>0.2640757164451414</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -506,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>76.27265599568686</v>
+        <v>88.32883758544921</v>
       </c>
       <c r="C3">
-        <v>0.1418879330764435</v>
+        <v>0.1681273413505369</v>
       </c>
       <c r="D3">
-        <v>107.8205008758016</v>
+        <v>99.80065942153301</v>
       </c>
       <c r="E3">
-        <v>0.1617195615870823</v>
+        <v>0.1662667692076085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -523,16 +604,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>88.94609349568685</v>
+        <v>93.12602640787757</v>
       </c>
       <c r="C4">
-        <v>0.1778064219863028</v>
+        <v>0.1474412957609301</v>
       </c>
       <c r="D4">
-        <v>102.2590905747673</v>
+        <v>118.0655418589266</v>
       </c>
       <c r="E4">
-        <v>0.1872242186563979</v>
+        <v>0.1655199519651886</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -540,67 +621,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>147.7967151006063</v>
+        <v>73.13374226888021</v>
       </c>
       <c r="C5">
-        <v>0.2515338457595408</v>
+        <v>0.1236204713876116</v>
       </c>
       <c r="D5">
-        <v>162.2780245667657</v>
+        <v>79.746022700843</v>
       </c>
       <c r="E5">
-        <v>0.2832247635360615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>116.2682384570439</v>
-      </c>
-      <c r="C6">
-        <v>0.2454361471042219</v>
-      </c>
-      <c r="D6">
-        <v>122.0560221243291</v>
-      </c>
-      <c r="E6">
-        <v>0.2191548669570894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>110.6625559488932</v>
-      </c>
-      <c r="C7">
-        <v>0.1808951106031245</v>
-      </c>
-      <c r="D7">
-        <v>127.4876480128168</v>
-      </c>
-      <c r="E7">
-        <v>0.203188924378213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>89.70908762613932</v>
-      </c>
-      <c r="C8">
-        <v>0.1673173655282505</v>
-      </c>
-      <c r="D8">
-        <v>97.36925836864138</v>
-      </c>
-      <c r="E8">
-        <v>0.1527853368696712</v>
+        <v>0.1256463899013074</v>
       </c>
     </row>
   </sheetData>

--- a/reports/evaluation.xlsx
+++ b/reports/evaluation.xlsx
@@ -385,77 +385,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>131.7036362938518</v>
-      </c>
-      <c r="C2">
-        <v>83.61886512469947</v>
-      </c>
-      <c r="D2">
-        <v>129.2584131052921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>146.1700081599555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>117.7477190732956</v>
-      </c>
-      <c r="C3">
-        <v>72.82756226062774</v>
-      </c>
-      <c r="D3">
-        <v>104.6217378060333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>128.0276243209839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2124154077354063</v>
-      </c>
-      <c r="C4">
-        <v>0.1283451617272169</v>
-      </c>
-      <c r="D4">
-        <v>0.1633663998056427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.2721145163809333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2257055770862675</v>
-      </c>
-      <c r="C5">
-        <v>0.1308813749474227</v>
-      </c>
-      <c r="D5">
-        <v>0.1845446686057443</v>
+        <v>0.2672606525105652</v>
       </c>
     </row>
   </sheetData>
@@ -465,77 +435,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>131.7036362938518</v>
-      </c>
-      <c r="C2">
-        <v>83.61886512469947</v>
-      </c>
-      <c r="D2">
-        <v>129.2584131052921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>146.1700081599555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>117.7477190732956</v>
-      </c>
-      <c r="C3">
-        <v>72.82756226062774</v>
-      </c>
-      <c r="D3">
-        <v>104.6217378060333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>128.0276243209839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2124154077354063</v>
-      </c>
-      <c r="C4">
-        <v>0.1283451617272169</v>
-      </c>
-      <c r="D4">
-        <v>0.1633663998056427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.2721145163809333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2257055770862675</v>
-      </c>
-      <c r="C5">
-        <v>0.1308813749474227</v>
-      </c>
-      <c r="D5">
-        <v>0.1845446686057443</v>
+        <v>0.2672606525105652</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +485,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,16 +510,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>139.0074192577352</v>
+        <v>175.0459190368653</v>
       </c>
       <c r="C2">
-        <v>0.2329801838586093</v>
+        <v>0.3031623121525204</v>
       </c>
       <c r="D2">
-        <v>156.4241917660677</v>
+        <v>175.0459190368653</v>
       </c>
       <c r="E2">
-        <v>0.2640757164451414</v>
+        <v>0.3573262361199632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -587,16 +527,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>88.32883758544921</v>
+        <v>146.2314037322998</v>
       </c>
       <c r="C3">
-        <v>0.1681273413505369</v>
+        <v>0.6265270082789193</v>
       </c>
       <c r="D3">
-        <v>99.80065942153301</v>
+        <v>146.2314037322998</v>
       </c>
       <c r="E3">
-        <v>0.1662667692076085</v>
+        <v>0.4770763874150776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -604,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>93.12602640787757</v>
+        <v>212.6437286376953</v>
       </c>
       <c r="C4">
-        <v>0.1474412957609301</v>
+        <v>0.2987408382097433</v>
       </c>
       <c r="D4">
-        <v>118.0655418589266</v>
+        <v>212.6437286376953</v>
       </c>
       <c r="E4">
-        <v>0.1655199519651886</v>
+        <v>0.3511996818819474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -621,16 +561,50 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73.13374226888021</v>
+        <v>63.0257598876953</v>
       </c>
       <c r="C5">
-        <v>0.1236204713876116</v>
+        <v>0.1708941428625144</v>
       </c>
       <c r="D5">
-        <v>79.746022700843</v>
+        <v>63.0257598876953</v>
       </c>
       <c r="E5">
-        <v>0.1256463899013074</v>
+        <v>0.1574412491962187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.118171691894418</v>
+      </c>
+      <c r="C6">
+        <v>0.01385936855898446</v>
+      </c>
+      <c r="D6">
+        <v>7.118171691894418</v>
+      </c>
+      <c r="E6">
+        <v>0.01395607978567862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>164.1007629394531</v>
+      </c>
+      <c r="C7">
+        <v>0.2195034282229175</v>
+      </c>
+      <c r="D7">
+        <v>164.1007629394531</v>
+      </c>
+      <c r="E7">
+        <v>0.2465642806645059</v>
       </c>
     </row>
   </sheetData>

--- a/reports/evaluation.xlsx
+++ b/reports/evaluation.xlsx
@@ -385,47 +385,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>146.1700081599555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36.59564901059883</v>
+      </c>
+      <c r="C2">
+        <v>43.94055371377568</v>
+      </c>
+      <c r="D2">
+        <v>65.26175595894591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>128.0276243209839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>29.31559293323329</v>
+      </c>
+      <c r="C3">
+        <v>37.82396786018674</v>
+      </c>
+      <c r="D3">
+        <v>50.52674723294164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2721145163809333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3.447265293849924</v>
+      </c>
+      <c r="C4">
+        <v>4.396718075701809</v>
+      </c>
+      <c r="D4">
+        <v>5.832327091445489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2672606525105652</v>
+        <v>0.03452506113358899</v>
+      </c>
+      <c r="C5">
+        <v>0.0440013301564669</v>
+      </c>
+      <c r="D5">
+        <v>0.05820233725522062</v>
       </c>
     </row>
   </sheetData>
@@ -435,47 +465,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>146.1700081599555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36.59564901059883</v>
+      </c>
+      <c r="C2">
+        <v>43.94055371377568</v>
+      </c>
+      <c r="D2">
+        <v>65.26175595894591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>128.0276243209839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>29.31559293323329</v>
+      </c>
+      <c r="C3">
+        <v>37.82396786018674</v>
+      </c>
+      <c r="D3">
+        <v>50.52674723294164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2721145163809333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3.447265293849924</v>
+      </c>
+      <c r="C4">
+        <v>4.396718075701809</v>
+      </c>
+      <c r="D4">
+        <v>5.832327091445489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2672606525105652</v>
+        <v>0.03452506113358899</v>
+      </c>
+      <c r="C5">
+        <v>0.0440013301564669</v>
+      </c>
+      <c r="D5">
+        <v>0.05820233725522062</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -510,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>175.0459190368653</v>
+        <v>26.11890641848246</v>
       </c>
       <c r="C2">
-        <v>0.3031623121525204</v>
+        <v>3.248027366489337</v>
       </c>
       <c r="D2">
-        <v>175.0459190368653</v>
+        <v>27.20117662507471</v>
       </c>
       <c r="E2">
-        <v>0.3573262361199632</v>
+        <v>0.03292132988378541</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>146.2314037322998</v>
+        <v>33.42399946848551</v>
       </c>
       <c r="C3">
-        <v>0.6265270082789193</v>
+        <v>4.06188683190721</v>
       </c>
       <c r="D3">
-        <v>146.2314037322998</v>
+        <v>39.80958822184938</v>
       </c>
       <c r="E3">
-        <v>0.4770763874150776</v>
+        <v>0.04043644444920982</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -544,16 +604,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>212.6437286376953</v>
+        <v>39.28630336125692</v>
       </c>
       <c r="C4">
-        <v>0.2987408382097433</v>
+        <v>4.754053162838189</v>
       </c>
       <c r="D4">
-        <v>212.6437286376953</v>
+        <v>42.30724018377625</v>
       </c>
       <c r="E4">
-        <v>0.3511996818819474</v>
+        <v>0.04690980230003724</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -561,16 +621,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.0257598876953</v>
+        <v>101.8905990918477</v>
       </c>
       <c r="C5">
-        <v>0.1708941428625144</v>
+        <v>11.06967521974063</v>
       </c>
       <c r="D5">
-        <v>63.0257598876953</v>
+        <v>105.8426331474278</v>
       </c>
       <c r="E5">
-        <v>0.1574412491962187</v>
+        <v>0.1176177457856356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -578,16 +638,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.118171691894418</v>
+        <v>23.87545450528463</v>
       </c>
       <c r="C6">
-        <v>0.01385936855898446</v>
+        <v>2.542320593888376</v>
       </c>
       <c r="D6">
-        <v>7.118171691894418</v>
+        <v>27.7460980854137</v>
       </c>
       <c r="E6">
-        <v>0.01395607978567862</v>
+        <v>0.0258592134888546</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -595,16 +655,509 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>164.1007629394531</v>
+        <v>26.30921709537506</v>
       </c>
       <c r="C7">
-        <v>0.2195034282229175</v>
+        <v>2.864182120774327</v>
       </c>
       <c r="D7">
-        <v>164.1007629394531</v>
+        <v>30.00907089464224</v>
       </c>
       <c r="E7">
-        <v>0.2465642806645059</v>
+        <v>0.02863478476327593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>73.5396740436554</v>
+      </c>
+      <c r="C8">
+        <v>8.521815464919284</v>
+      </c>
+      <c r="D8">
+        <v>81.20601583040167</v>
+      </c>
+      <c r="E8">
+        <v>0.08092966376000493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>52.91944662729899</v>
+      </c>
+      <c r="C9">
+        <v>6.550935741399654</v>
+      </c>
+      <c r="D9">
+        <v>62.51111826006021</v>
+      </c>
+      <c r="E9">
+        <v>0.06258419406370908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>34.65318218866984</v>
+      </c>
+      <c r="C10">
+        <v>4.339630566557054</v>
+      </c>
+      <c r="D10">
+        <v>35.41293295495136</v>
+      </c>
+      <c r="E10">
+        <v>0.04242614962625076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>33.86532987343768</v>
+      </c>
+      <c r="C11">
+        <v>4.380997895124764</v>
+      </c>
+      <c r="D11">
+        <v>36.26543528503106</v>
+      </c>
+      <c r="E11">
+        <v>0.04272669815716765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>14.86142687002818</v>
+      </c>
+      <c r="C12">
+        <v>1.90766401443597</v>
+      </c>
+      <c r="D12">
+        <v>16.99834218681868</v>
+      </c>
+      <c r="E12">
+        <v>0.01901750552567914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>18.29955172538757</v>
+      </c>
+      <c r="C13">
+        <v>2.329882563442847</v>
+      </c>
+      <c r="D13">
+        <v>22.54977428381105</v>
+      </c>
+      <c r="E13">
+        <v>0.02310208239600467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>27.47749888896942</v>
+      </c>
+      <c r="C14">
+        <v>3.388303681394242</v>
+      </c>
+      <c r="D14">
+        <v>30.26996207342563</v>
+      </c>
+      <c r="E14">
+        <v>0.03453679178628146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>33.27826881408691</v>
+      </c>
+      <c r="C15">
+        <v>3.985713200616567</v>
+      </c>
+      <c r="D15">
+        <v>39.42663130472594</v>
+      </c>
+      <c r="E15">
+        <v>0.03996084194788952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>37.51922543843587</v>
+      </c>
+      <c r="C16">
+        <v>4.532697879414238</v>
+      </c>
+      <c r="D16">
+        <v>41.28942038935366</v>
+      </c>
+      <c r="E16">
+        <v>0.04461099079441635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>107.0109900633494</v>
+      </c>
+      <c r="C17">
+        <v>11.5140132497457</v>
+      </c>
+      <c r="D17">
+        <v>112.0201942624987</v>
+      </c>
+      <c r="E17">
+        <v>0.122750058941147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35.30979682008425</v>
+      </c>
+      <c r="C18">
+        <v>3.707125773997781</v>
+      </c>
+      <c r="D18">
+        <v>39.32410243742473</v>
+      </c>
+      <c r="E18">
+        <v>0.03793293012976779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>27.65119465192159</v>
+      </c>
+      <c r="C19">
+        <v>2.897003910154944</v>
+      </c>
+      <c r="D19">
+        <v>31.52846679327302</v>
+      </c>
+      <c r="E19">
+        <v>0.02948271284173231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>56.05544827257594</v>
+      </c>
+      <c r="C20">
+        <v>6.307993177563241</v>
+      </c>
+      <c r="D20">
+        <v>63.96853770429648</v>
+      </c>
+      <c r="E20">
+        <v>0.06054693424266808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>46.51514466603597</v>
+      </c>
+      <c r="C21">
+        <v>5.563628126893692</v>
+      </c>
+      <c r="D21">
+        <v>56.4962191556702</v>
+      </c>
+      <c r="E21">
+        <v>0.05340013941056784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>33.47617284456889</v>
+      </c>
+      <c r="C22">
+        <v>4.061872134374746</v>
+      </c>
+      <c r="D22">
+        <v>34.65816901517425</v>
+      </c>
+      <c r="E22">
+        <v>0.03974460340801636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>40.12422697246075</v>
+      </c>
+      <c r="C23">
+        <v>5.075417208487421</v>
+      </c>
+      <c r="D23">
+        <v>44.28327415750679</v>
+      </c>
+      <c r="E23">
+        <v>0.04920938099628536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>14.35539595286051</v>
+      </c>
+      <c r="C24">
+        <v>1.8405237312635</v>
+      </c>
+      <c r="D24">
+        <v>20.56620048792919</v>
+      </c>
+      <c r="E24">
+        <v>0.01807016743044822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>18.55288136005402</v>
+      </c>
+      <c r="C25">
+        <v>2.357383944518499</v>
+      </c>
+      <c r="D25">
+        <v>24.12465257953491</v>
+      </c>
+      <c r="E25">
+        <v>0.02314813090493302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>28.35681446393331</v>
+      </c>
+      <c r="C26">
+        <v>3.469295780705005</v>
+      </c>
+      <c r="D26">
+        <v>30.64295305943599</v>
+      </c>
+      <c r="E26">
+        <v>0.03532674080487577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>32.51736418406168</v>
+      </c>
+      <c r="C27">
+        <v>3.892863493515954</v>
+      </c>
+      <c r="D27">
+        <v>39.55901077647834</v>
+      </c>
+      <c r="E27">
+        <v>0.0388926716095325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>35.36595900853475</v>
+      </c>
+      <c r="C28">
+        <v>4.290852256287799</v>
+      </c>
+      <c r="D28">
+        <v>40.84213536696764</v>
+      </c>
+      <c r="E28">
+        <v>0.04202067978885764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>100.1808304786682</v>
+      </c>
+      <c r="C29">
+        <v>10.78777935494305</v>
+      </c>
+      <c r="D29">
+        <v>104.4126186918095</v>
+      </c>
+      <c r="E29">
+        <v>0.114480029404701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>24.59459257125854</v>
+      </c>
+      <c r="C30">
+        <v>2.589346441447139</v>
+      </c>
+      <c r="D30">
+        <v>28.68851574574468</v>
+      </c>
+      <c r="E30">
+        <v>0.02635045458933759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>26.92618564764659</v>
+      </c>
+      <c r="C31">
+        <v>2.870698497866942</v>
+      </c>
+      <c r="D31">
+        <v>29.09747540237117</v>
+      </c>
+      <c r="E31">
+        <v>0.02892612566307003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>67.3577614625295</v>
+      </c>
+      <c r="C32">
+        <v>7.642878267190627</v>
+      </c>
+      <c r="D32">
+        <v>74.15209644008607</v>
+      </c>
+      <c r="E32">
+        <v>0.07299052699946013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>45.33462905883789</v>
+      </c>
+      <c r="C33">
+        <v>5.412918371090521</v>
+      </c>
+      <c r="D33">
+        <v>52.37619779871554</v>
+      </c>
+      <c r="E33">
+        <v>0.05221009343826746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>19.04072054227193</v>
+      </c>
+      <c r="C34">
+        <v>2.287545015990053</v>
+      </c>
+      <c r="D34">
+        <v>19.29262137647973</v>
+      </c>
+      <c r="E34">
+        <v>0.02260898034272936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>19.39050032291561</v>
+      </c>
+      <c r="C35">
+        <v>2.407333789374174</v>
+      </c>
+      <c r="D35">
+        <v>23.06285472571485</v>
+      </c>
+      <c r="E35">
+        <v>0.023666810801803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>17.33889988561471</v>
+      </c>
+      <c r="C36">
+        <v>2.10269654994744</v>
+      </c>
+      <c r="D36">
+        <v>19.44670851136304</v>
+      </c>
+      <c r="E36">
+        <v>0.0211360892184899</v>
       </c>
     </row>
   </sheetData>
